--- a/Data/gpm_data1.xlsx
+++ b/Data/gpm_data1.xlsx
@@ -217,27 +217,27 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 120mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 60mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 120mg Tablet</t>
-  </si>
-  <si>
     <t>Dinafex 180mg Tablet</t>
   </si>
   <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 60mg Tablet - 40's</t>
+  </si>
+  <si>
+    <t>Etorix 90mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 120mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 60mg Tablet - 40's</t>
-  </si>
-  <si>
-    <t>Etorix 90mg Tablet</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
@@ -250,24 +250,24 @@
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 30mg Injection</t>
+  </si>
+  <si>
+    <t>Ketonic 10mg Tablet</t>
+  </si>
+  <si>
     <t>Ketonic 30mg IM/IV Injection - 4's</t>
   </si>
   <si>
-    <t>Ketonic 10mg Tablet</t>
-  </si>
-  <si>
-    <t>Ketonic 30mg Injection</t>
-  </si>
-  <si>
     <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
+    <t>Kynol TR 100mg Capsule</t>
+  </si>
+  <si>
     <t>Kynol D 25mg Tablet</t>
   </si>
   <si>
-    <t>Kynol TR 100mg Capsule</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -280,18 +280,18 @@
     <t>Sk-Mox 500mg Capsule</t>
   </si>
   <si>
+    <t>Zithrox 15ml Suspension</t>
+  </si>
+  <si>
+    <t>Zithrox 500mg Tablet</t>
+  </si>
+  <si>
+    <t>Zithrox 250mg Tablet - 6's</t>
+  </si>
+  <si>
     <t>Zithrox 30ml Dry Suspension</t>
   </si>
   <si>
-    <t>Zithrox 15ml Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 250mg Tablet - 6's</t>
-  </si>
-  <si>
-    <t>Zithrox 500mg Tablet</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -301,12 +301,12 @@
     <t>50's</t>
   </si>
   <si>
+    <t>40's</t>
+  </si>
+  <si>
     <t>20's</t>
   </si>
   <si>
-    <t>40's</t>
-  </si>
-  <si>
     <t>100ml</t>
   </si>
   <si>
@@ -319,18 +319,18 @@
     <t>8 's</t>
   </si>
   <si>
+    <t>5 's</t>
+  </si>
+  <si>
     <t>4's</t>
   </si>
   <si>
-    <t>5 's</t>
+    <t>50 's</t>
   </si>
   <si>
     <t>60 's</t>
   </si>
   <si>
-    <t>50 's</t>
-  </si>
-  <si>
     <t>40 's</t>
   </si>
   <si>
@@ -340,16 +340,16 @@
     <t>48 's</t>
   </si>
   <si>
+    <t>15 ml</t>
+  </si>
+  <si>
+    <t>6 's</t>
+  </si>
+  <si>
+    <t>6's</t>
+  </si>
+  <si>
     <t>30ml</t>
-  </si>
-  <si>
-    <t>15 ml</t>
-  </si>
-  <si>
-    <t>6's</t>
-  </si>
-  <si>
-    <t>6 's</t>
   </si>
 </sst>
 </file>
@@ -1830,7 +1830,7 @@
         <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2936,7 +2936,7 @@
         <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E15">
         <v>0</v>

--- a/Data/gpm_data1.xlsx
+++ b/Data/gpm_data1.xlsx
@@ -217,57 +217,57 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 180mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 120mg Tablet</t>
   </si>
   <si>
     <t>Dinafex 60mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 180mg Tablet</t>
-  </si>
-  <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 120mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 60mg Tablet - 40's</t>
   </si>
   <si>
     <t>Etorix 90mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 120mg Tablet</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule - 36's</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
     <t>Ketonic 30mg Injection</t>
   </si>
   <si>
+    <t>Ketonic 30mg IM/IV Injection - 4's</t>
+  </si>
+  <si>
     <t>Ketonic 10mg Tablet</t>
   </si>
   <si>
-    <t>Ketonic 30mg IM/IV Injection - 4's</t>
+    <t>Kynol D 25mg Tablet</t>
+  </si>
+  <si>
+    <t>Kynol TR 100mg Capsule</t>
   </si>
   <si>
     <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
-    <t>Kynol TR 100mg Capsule</t>
-  </si>
-  <si>
-    <t>Kynol D 25mg Tablet</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -280,18 +280,18 @@
     <t>Sk-Mox 500mg Capsule</t>
   </si>
   <si>
+    <t>Zithrox 30ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 15ml Suspension</t>
   </si>
   <si>
+    <t>Zithrox 250mg Tablet - 6's</t>
+  </si>
+  <si>
     <t>Zithrox 500mg Tablet</t>
   </si>
   <si>
-    <t>Zithrox 250mg Tablet - 6's</t>
-  </si>
-  <si>
-    <t>Zithrox 30ml Dry Suspension</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -301,21 +301,21 @@
     <t>50's</t>
   </si>
   <si>
+    <t>20's</t>
+  </si>
+  <si>
     <t>40's</t>
   </si>
   <si>
-    <t>20's</t>
-  </si>
-  <si>
     <t>100ml</t>
   </si>
   <si>
+    <t>30 's</t>
+  </si>
+  <si>
     <t>36 's</t>
   </si>
   <si>
-    <t>30 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
@@ -325,12 +325,12 @@
     <t>4's</t>
   </si>
   <si>
+    <t>60 's</t>
+  </si>
+  <si>
     <t>50 's</t>
   </si>
   <si>
-    <t>60 's</t>
-  </si>
-  <si>
     <t>40 's</t>
   </si>
   <si>
@@ -340,16 +340,16 @@
     <t>48 's</t>
   </si>
   <si>
+    <t>30ml</t>
+  </si>
+  <si>
     <t>15 ml</t>
   </si>
   <si>
+    <t>6's</t>
+  </si>
+  <si>
     <t>6 's</t>
-  </si>
-  <si>
-    <t>6's</t>
-  </si>
-  <si>
-    <t>30ml</t>
   </si>
 </sst>
 </file>
@@ -1830,7 +1830,7 @@
         <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2626,10 +2626,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2936,7 +2936,7 @@
         <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3410,7 +3410,7 @@
         <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E20">
         <v>0</v>

--- a/Data/gpm_data1.xlsx
+++ b/Data/gpm_data1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="113">
   <si>
     <t>BSL NO</t>
   </si>
@@ -28,6 +28,9 @@
     <t>UOM</t>
   </si>
   <si>
+    <t>YesterdaySales</t>
+  </si>
+  <si>
     <t>Avg Sales/Day</t>
   </si>
   <si>
@@ -67,7 +70,7 @@
     <t>SKF Rupganj Plant</t>
   </si>
   <si>
-    <t>AvgSaleBOG</t>
+    <t>TDCL Central WH</t>
   </si>
   <si>
     <t>Branch Total</t>
@@ -220,12 +223,12 @@
     <t>Dinafex 180mg Tablet</t>
   </si>
   <si>
+    <t>Dinafex 60mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 120mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 60mg Tablet</t>
-  </si>
-  <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
@@ -250,24 +253,24 @@
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 10mg Tablet</t>
+  </si>
+  <si>
+    <t>Ketonic 30mg IM/IV Injection - 4's</t>
+  </si>
+  <si>
     <t>Ketonic 30mg Injection</t>
   </si>
   <si>
-    <t>Ketonic 30mg IM/IV Injection - 4's</t>
-  </si>
-  <si>
-    <t>Ketonic 10mg Tablet</t>
+    <t>Kynol TR 100mg Capsule</t>
+  </si>
+  <si>
+    <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
     <t>Kynol D 25mg Tablet</t>
   </si>
   <si>
-    <t>Kynol TR 100mg Capsule</t>
-  </si>
-  <si>
-    <t>Kynol TR 200mg Capsule</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -280,18 +283,18 @@
     <t>Sk-Mox 500mg Capsule</t>
   </si>
   <si>
+    <t>Zithrox 15ml Suspension</t>
+  </si>
+  <si>
+    <t>Zithrox 250mg Tablet - 6's</t>
+  </si>
+  <si>
+    <t>Zithrox 500mg Tablet</t>
+  </si>
+  <si>
     <t>Zithrox 30ml Dry Suspension</t>
   </si>
   <si>
-    <t>Zithrox 15ml Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 250mg Tablet - 6's</t>
-  </si>
-  <si>
-    <t>Zithrox 500mg Tablet</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -319,18 +322,18 @@
     <t>8 's</t>
   </si>
   <si>
+    <t>4's</t>
+  </si>
+  <si>
     <t>5 's</t>
   </si>
   <si>
-    <t>4's</t>
+    <t>50 's</t>
   </si>
   <si>
     <t>60 's</t>
   </si>
   <si>
-    <t>50 's</t>
-  </si>
-  <si>
     <t>40 's</t>
   </si>
   <si>
@@ -340,16 +343,16 @@
     <t>48 's</t>
   </si>
   <si>
+    <t>15 ml</t>
+  </si>
+  <si>
+    <t>6's</t>
+  </si>
+  <si>
+    <t>6 's</t>
+  </si>
+  <si>
     <t>30ml</t>
-  </si>
-  <si>
-    <t>15 ml</t>
-  </si>
-  <si>
-    <t>6's</t>
-  </si>
-  <si>
-    <t>6 's</t>
   </si>
 </sst>
 </file>
@@ -707,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AZ27"/>
+  <dimension ref="A1:BA27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:52">
+    <row r="1" spans="1:53">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -870,19 +873,22 @@
       <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="2" spans="1:52">
+    <row r="2" spans="1:53">
       <c r="A2">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1028,19 +1034,22 @@
       <c r="AZ2">
         <v>0</v>
       </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:52">
+    <row r="3" spans="1:53">
       <c r="A3">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1186,19 +1195,22 @@
       <c r="AZ3">
         <v>0</v>
       </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:52">
+    <row r="4" spans="1:53">
       <c r="A4">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1344,19 +1356,22 @@
       <c r="AZ4">
         <v>0</v>
       </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:52">
+    <row r="5" spans="1:53">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1502,19 +1517,22 @@
       <c r="AZ5">
         <v>0</v>
       </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:52">
+    <row r="6" spans="1:53">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1660,19 +1678,22 @@
       <c r="AZ6">
         <v>0</v>
       </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:52">
+    <row r="7" spans="1:53">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1818,19 +1839,22 @@
       <c r="AZ7">
         <v>0</v>
       </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:52">
+    <row r="8" spans="1:53">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1976,19 +2000,22 @@
       <c r="AZ8">
         <v>0</v>
       </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:52">
+    <row r="9" spans="1:53">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2134,19 +2161,22 @@
       <c r="AZ9">
         <v>0</v>
       </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:52">
+    <row r="10" spans="1:53">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2292,19 +2322,22 @@
       <c r="AZ10">
         <v>0</v>
       </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11" spans="1:53">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2450,19 +2483,22 @@
       <c r="AZ11">
         <v>0</v>
       </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12" spans="1:53">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2608,31 +2644,34 @@
       <c r="AZ12">
         <v>0</v>
       </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:53">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>310</v>
       </c>
-      <c r="G13">
-        <v>31</v>
-      </c>
       <c r="H13">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -2766,19 +2805,22 @@
       <c r="AZ13">
         <v>0</v>
       </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14" spans="1:53">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2924,16 +2966,19 @@
       <c r="AZ14">
         <v>0</v>
       </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15" spans="1:53">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
         <v>102</v>
@@ -3082,19 +3127,22 @@
       <c r="AZ15">
         <v>0</v>
       </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16" spans="1:53">
       <c r="A16">
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3240,19 +3288,22 @@
       <c r="AZ16">
         <v>0</v>
       </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:53">
       <c r="A17">
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3398,19 +3449,22 @@
       <c r="AZ17">
         <v>0</v>
       </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:53">
       <c r="A18">
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3556,19 +3610,22 @@
       <c r="AZ18">
         <v>0</v>
       </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:53">
       <c r="A19">
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3714,19 +3771,22 @@
       <c r="AZ19">
         <v>0</v>
       </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:53">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -3872,19 +3932,22 @@
       <c r="AZ20">
         <v>0</v>
       </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:53">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4030,19 +4093,22 @@
       <c r="AZ21">
         <v>0</v>
       </c>
+      <c r="BA21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:53">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -4188,22 +4254,25 @@
       <c r="AZ22">
         <v>0</v>
       </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23" spans="1:53">
       <c r="A23">
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -4212,28 +4281,28 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
         <v>24</v>
       </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
       <c r="M23">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -4245,10 +4314,10 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="U23">
         <v>0</v>
@@ -4299,10 +4368,10 @@
         <v>0</v>
       </c>
       <c r="AK23">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AL23">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AM23">
         <v>0</v>
@@ -4326,11 +4395,11 @@
         <v>0</v>
       </c>
       <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
         <v>157</v>
       </c>
-      <c r="AU23">
-        <v>0</v>
-      </c>
       <c r="AV23">
         <v>0</v>
       </c>
@@ -4341,24 +4410,27 @@
         <v>0</v>
       </c>
       <c r="AY23">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AZ23">
-        <v>3067</v>
+        <v>15</v>
+      </c>
+      <c r="BA23">
+        <v>3286</v>
       </c>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24" spans="1:53">
       <c r="A24">
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -4504,19 +4576,22 @@
       <c r="AZ24">
         <v>0</v>
       </c>
+      <c r="BA24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25" spans="1:53">
       <c r="A25">
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -4662,19 +4737,22 @@
       <c r="AZ25">
         <v>0</v>
       </c>
+      <c r="BA25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:53">
       <c r="A26">
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -4820,19 +4898,22 @@
       <c r="AZ26">
         <v>0</v>
       </c>
+      <c r="BA26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:53">
       <c r="A27">
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -4976,6 +5057,9 @@
         <v>0</v>
       </c>
       <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
         <v>0</v>
       </c>
     </row>

--- a/Data/gpm_data1.xlsx
+++ b/Data/gpm_data1.xlsx
@@ -223,24 +223,24 @@
     <t>Dinafex 180mg Tablet</t>
   </si>
   <si>
+    <t>Dinafex 120mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 60mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 120mg Tablet</t>
-  </si>
-  <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
     <t>Etorix 120mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 90mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 60mg Tablet - 40's</t>
   </si>
   <si>
-    <t>Etorix 90mg Tablet</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
@@ -253,24 +253,24 @@
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 30mg Injection</t>
+  </si>
+  <si>
     <t>Ketonic 10mg Tablet</t>
   </si>
   <si>
     <t>Ketonic 30mg IM/IV Injection - 4's</t>
   </si>
   <si>
-    <t>Ketonic 30mg Injection</t>
+    <t>Kynol D 25mg Tablet</t>
+  </si>
+  <si>
+    <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
     <t>Kynol TR 100mg Capsule</t>
   </si>
   <si>
-    <t>Kynol TR 200mg Capsule</t>
-  </si>
-  <si>
-    <t>Kynol D 25mg Tablet</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -283,18 +283,18 @@
     <t>Sk-Mox 500mg Capsule</t>
   </si>
   <si>
+    <t>Zithrox 500mg Tablet</t>
+  </si>
+  <si>
+    <t>Zithrox 250mg Tablet - 6's</t>
+  </si>
+  <si>
+    <t>Zithrox 30ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 15ml Suspension</t>
   </si>
   <si>
-    <t>Zithrox 250mg Tablet - 6's</t>
-  </si>
-  <si>
-    <t>Zithrox 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Zithrox 30ml Dry Suspension</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -322,18 +322,18 @@
     <t>8 's</t>
   </si>
   <si>
+    <t>5 's</t>
+  </si>
+  <si>
     <t>4's</t>
   </si>
   <si>
-    <t>5 's</t>
+    <t>60 's</t>
   </si>
   <si>
     <t>50 's</t>
   </si>
   <si>
-    <t>60 's</t>
-  </si>
-  <si>
     <t>40 's</t>
   </si>
   <si>
@@ -343,16 +343,16 @@
     <t>48 's</t>
   </si>
   <si>
+    <t>6 's</t>
+  </si>
+  <si>
+    <t>6's</t>
+  </si>
+  <si>
+    <t>30ml</t>
+  </si>
+  <si>
     <t>15 ml</t>
-  </si>
-  <si>
-    <t>6's</t>
-  </si>
-  <si>
-    <t>6 's</t>
-  </si>
-  <si>
-    <t>30ml</t>
   </si>
 </sst>
 </file>
@@ -1854,7 +1854,7 @@
         <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2015,7 +2015,7 @@
         <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2671,7 +2671,7 @@
         <v>310</v>
       </c>
       <c r="H13">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2981,7 +2981,7 @@
         <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -4272,7 +4272,7 @@
         <v>108</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -4299,10 +4299,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O23">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -4317,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U23">
         <v>0</v>
@@ -4371,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="AL23">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM23">
         <v>0</v>
@@ -4413,10 +4413,10 @@
         <v>0</v>
       </c>
       <c r="AZ23">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="BA23">
-        <v>3286</v>
+        <v>5697</v>
       </c>
     </row>
     <row r="24" spans="1:53">
